--- a/Dokumente/Use - Case bewerten.xlsx
+++ b/Dokumente/Use - Case bewerten.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jam4.sapjam.com/webdav/ODgxMTQ2YjZkZjdiMzZhYzUyOTkzYzE1ODBjM2U3YWFhNjliMGEzMg__/1449565790/678270/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH_SC\GitHub\featback\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Use Case Name:</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>SYSTEM</t>
-  </si>
-  <si>
-    <t>&lt;App Name&gt;</t>
   </si>
   <si>
     <t>N/A</t>
@@ -214,13 +211,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>&lt;Name&gt;</t>
   </si>
   <si>
     <t>Ia</t>
@@ -272,6 +262,51 @@
       </rPr>
       <t xml:space="preserve"> View on Supplier</t>
     </r>
+  </si>
+  <si>
+    <t>F-EAT-BACK</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die App stellt dem Nutzer eine Übersicht aller angebotenen Speisen der Mensa für den aktuellen Tag zur Verfügung </t>
+  </si>
+  <si>
+    <t>Übersicht über alle angebotenen Speisen</t>
+  </si>
+  <si>
+    <t>Ausgewähltes Essen</t>
+  </si>
+  <si>
+    <t>Die App zeigt dem Nutzer alle Informationen zu dem ausgewählten Essen an</t>
+  </si>
+  <si>
+    <t>Details des ausgewählten Essens, Bewertungen des gewählten Essens, Kommentare des gewählten Essens</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt das Essen aus, welches er bewerten will</t>
+  </si>
+  <si>
+    <t>Der Nutzer kann dem ausgewählten Essen eine Bewertung von 1 bis 5 Punkten vergeben sowie einen zusätzlichen (optionalen) Kommentar verfassen</t>
+  </si>
+  <si>
+    <t>Bewertung, Kommentar (sofern vorhanden)</t>
+  </si>
+  <si>
+    <t>Die App leitet die Bewertung und den Kommentar an die Datenbank weiter in welcher sie abgespeichert werden</t>
+  </si>
+  <si>
+    <t>Bewertung, Kommentar</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>F4a. Der Nutzer wählt keine Punktanzahl aus und versucht die Bewertung dennoch abzusenden</t>
   </si>
 </sst>
 </file>
@@ -642,6 +677,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -684,13 +722,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,8 +826,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="6943725"/>
-          <a:ext cx="1123950" cy="781050"/>
+          <a:off x="5448300" y="6734175"/>
+          <a:ext cx="1123950" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -874,15 +909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -891,8 +926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="8667750"/>
-          <a:ext cx="1038225" cy="685800"/>
+          <a:off x="5457825" y="8210550"/>
+          <a:ext cx="1038225" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -924,15 +959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>675082</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:colOff>713182</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -941,8 +976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190502" y="8229600"/>
-          <a:ext cx="484580" cy="3181350"/>
+          <a:off x="228602" y="5848350"/>
+          <a:ext cx="484580" cy="3086100"/>
           <a:chOff x="200027" y="7972425"/>
           <a:chExt cx="484580" cy="2752728"/>
         </a:xfrm>
@@ -954,10 +989,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="466725" y="8601075"/>
-            <a:ext cx="217882" cy="1495425"/>
-            <a:chOff x="1724025" y="4800600"/>
-            <a:chExt cx="342900" cy="1562100"/>
+            <a:off x="466725" y="8601074"/>
+            <a:ext cx="217882" cy="1495426"/>
+            <a:chOff x="1724025" y="4800599"/>
+            <a:chExt cx="342900" cy="1562101"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
@@ -1002,7 +1037,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="1733550" y="4800600"/>
+              <a:off x="1733550" y="4800599"/>
               <a:ext cx="0" cy="1562100"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -1104,13 +1139,50 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1000">
-                <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:rPr lang="de-DE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>&lt;Reason for Iteration&gt;</a:t>
+              <a:t>Auswählen</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> eines anderen Speiseangebots</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2606,11 +2678,11 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -2624,9 +2696,9 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="61.5">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2638,17 +2710,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2665,34 +2737,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -2709,96 +2781,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="B8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -2815,20 +2887,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2917,18 +2989,18 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="G22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -2943,35 +3015,39 @@
       <c r="I23" s="25"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="24" spans="1:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="82.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
@@ -2979,44 +3055,54 @@
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="26" spans="1:10" ht="85.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="30">
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="52.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="31"/>
       <c r="B27" s="26">
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="32"/>
       <c r="I27" s="7"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="28" spans="1:10" ht="39.75" thickTop="1" thickBot="1">
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3024,19 +3110,19 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="29" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A29" s="31"/>
       <c r="B29" s="26">
         <v>6</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="C29" s="28"/>
       <c r="D29" s="27"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3045,7 +3131,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="30" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
       <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="33"/>
@@ -3056,18 +3142,18 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="31" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
       <c r="A31" s="31"/>
       <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3077,7 +3163,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="69" thickTop="1" thickBot="1">
+    <row r="32" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
       <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="33"/>
@@ -3088,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="4"/>
@@ -3131,28 +3217,28 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
@@ -3263,7 +3349,7 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -3277,9 +3363,9 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="61.5">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3291,17 +3377,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3318,34 +3404,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3362,96 +3448,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="B8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3468,20 +3554,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3504,7 +3590,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -3573,24 +3659,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="G22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3604,29 +3690,29 @@
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="52" t="s">
         <v>44</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="22.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="21"/>
@@ -3640,7 +3726,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -3649,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -3662,16 +3748,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
       <c r="H27" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="4"/>
@@ -3687,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -3700,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3723,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
@@ -3734,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3782,28 +3868,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">

--- a/Dokumente/Use - Case bewerten.xlsx
+++ b/Dokumente/Use - Case bewerten.xlsx
@@ -97,25 +97,7 @@
     <t>Use Case ID:</t>
   </si>
   <si>
-    <t>&lt;"I want to &lt;intent&gt; in order to &lt;goal&gt;"&gt;</t>
-  </si>
-  <si>
     <t>Background:</t>
-  </si>
-  <si>
-    <t>&lt;Short descritpion and assumptions about the scenario&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Persona who is using the system to fulfill a specific goal&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Short title&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Prerequisites which should be true before the use case can start&gt;</t>
-  </si>
-  <si>
-    <t>&lt;The action or event(s) that gets the use case started&gt;</t>
   </si>
   <si>
     <t>Annotations</t>
@@ -307,6 +289,24 @@
   </si>
   <si>
     <t>F4a. Der Nutzer wählt keine Punktanzahl aus und versucht die Bewertung dennoch abzusenden</t>
+  </si>
+  <si>
+    <t>Mensaessen mittels der F-EAT-BACK App bewerten</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Fritz hat ein Essen in der Mensa zu sich genommen und möchte dieses nun nach dem Verzehr bewerten. So kann er seine Meinung kundtun und aufzeigen wie ihm das Essen geschmeckt hat. Hierdurch hat er ein gewisses Mitspracherecht bei der Entscheidung über zukünftige Essensangebote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz war in der Vergangenheit oft mit dem Mensaessen unzufrieden. Er will dass sdas Angebot verbessert wird. Durch die Möglichkeit Feedback zu geben, kann er konstruktive Kritik äußern und so dafür sorgen, dass es für die Köche Verbesserungsmöglichkeiten gibt. </t>
+  </si>
+  <si>
+    <t>Die FEATBACK App muss auf einem Handy oder Pc installiert sein, außerdem muss Fritz wissen wie er diese zu bedienen hat.</t>
+  </si>
+  <si>
+    <t>Fritz will ein Essen der Mensa nach Verzehr bewerten.</t>
   </si>
 </sst>
 </file>
@@ -680,15 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,6 +712,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,7 +976,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228602" y="5848350"/>
+          <a:off x="228602" y="6410325"/>
           <a:ext cx="484580" cy="3086100"/>
           <a:chOff x="200027" y="7972425"/>
           <a:chExt cx="484580" cy="2752728"/>
@@ -2678,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2698,7 +2698,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2710,17 +2710,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2737,34 +2737,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -2781,96 +2781,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="B7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="41.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="B11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -2887,20 +2887,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="B14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2989,18 +2989,18 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="G22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -3021,17 +3021,17 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -3041,13 +3041,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
@@ -3059,21 +3059,21 @@
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="30">
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -3083,14 +3083,14 @@
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="32"/>
@@ -3101,7 +3101,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
@@ -3110,10 +3110,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -3142,7 +3142,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
@@ -3153,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3174,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="4"/>
@@ -3217,28 +3217,28 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="B36" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
@@ -3303,6 +3303,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B36:I36"/>
@@ -3319,14 +3327,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
@@ -3365,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3377,17 +3377,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3404,34 +3404,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3448,96 +3448,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="B7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="B11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3554,20 +3554,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="B14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3590,7 +3590,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -3659,24 +3659,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="G22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3690,29 +3690,29 @@
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="21"/>
@@ -3726,7 +3726,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -3735,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -3748,16 +3748,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
       <c r="H27" s="32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="4"/>
@@ -3773,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -3786,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3809,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
@@ -3820,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3868,28 +3868,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -3954,6 +3954,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -3970,15 +3979,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
